--- a/sales/protected/commands/template/TurnoverExcel.xlsx
+++ b/sales/protected/commands/template/TurnoverExcel.xlsx
@@ -7,9 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,10 +19,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,100 +31,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,34 +122,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,8 +138,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,7 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,19 +184,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +256,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,84 +352,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,48 +365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +375,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,17 +423,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,30 +447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -475,8 +459,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,150 +495,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,79 +980,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="I10 L10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="6" width="12" customWidth="1"/>
-    <col min="7" max="11" width="11" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="14" customHeight="1"/>
-    <row r="9" ht="17" customHeight="1"/>
-    <row r="10" ht="16" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1099,21 +1012,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/sales/protected/commands/template/TurnoverExcel.xlsx
+++ b/sales/protected/commands/template/TurnoverExcel.xlsx
@@ -18,9 +18,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,37 +32,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,86 +52,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +73,107 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -184,13 +184,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,37 +340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,127 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,6 +375,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -393,17 +404,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +424,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,31 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,154 +483,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -980,17 +983,1074 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
